--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.66862</v>
+        <v>7.1463275</v>
       </c>
       <c r="H2">
-        <v>23.33724</v>
+        <v>14.292655</v>
       </c>
       <c r="I2">
-        <v>0.1418293637844402</v>
+        <v>0.05743188076521042</v>
       </c>
       <c r="J2">
-        <v>0.1026592641785845</v>
+        <v>0.03991528974024944</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N2">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O2">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P2">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q2">
-        <v>1912.11311294157</v>
+        <v>681.9025593305087</v>
       </c>
       <c r="R2">
-        <v>7648.452451766279</v>
+        <v>2727.610237322035</v>
       </c>
       <c r="S2">
-        <v>0.0617522275617499</v>
+        <v>0.02624073165298741</v>
       </c>
       <c r="T2">
-        <v>0.03612772343990039</v>
+        <v>0.0153908147014949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.66862</v>
+        <v>7.1463275</v>
       </c>
       <c r="H3">
-        <v>23.33724</v>
+        <v>14.292655</v>
       </c>
       <c r="I3">
-        <v>0.1418293637844402</v>
+        <v>0.05743188076521042</v>
       </c>
       <c r="J3">
-        <v>0.1026592641785845</v>
+        <v>0.03991528974024944</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O3">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P3">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q3">
-        <v>196.11549984132</v>
+        <v>120.108940876665</v>
       </c>
       <c r="R3">
-        <v>1176.69299904792</v>
+        <v>720.65364525999</v>
       </c>
       <c r="S3">
-        <v>0.006333604896394845</v>
+        <v>0.004621989525546696</v>
       </c>
       <c r="T3">
-        <v>0.00555814911727051</v>
+        <v>0.004066360569552238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.66862</v>
+        <v>7.1463275</v>
       </c>
       <c r="H4">
-        <v>23.33724</v>
+        <v>14.292655</v>
       </c>
       <c r="I4">
-        <v>0.1418293637844402</v>
+        <v>0.05743188076521042</v>
       </c>
       <c r="J4">
-        <v>0.1026592641785845</v>
+        <v>0.03991528974024944</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N4">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O4">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P4">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q4">
-        <v>365.85083640674</v>
+        <v>174.9276449436858</v>
       </c>
       <c r="R4">
-        <v>2195.10501844044</v>
+        <v>1049.565869662115</v>
       </c>
       <c r="S4">
-        <v>0.01181525504455651</v>
+        <v>0.006731503389814231</v>
       </c>
       <c r="T4">
-        <v>0.01036865268207815</v>
+        <v>0.005922280828819085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.66862</v>
+        <v>7.1463275</v>
       </c>
       <c r="H5">
-        <v>23.33724</v>
+        <v>14.292655</v>
       </c>
       <c r="I5">
-        <v>0.1418293637844402</v>
+        <v>0.05743188076521042</v>
       </c>
       <c r="J5">
-        <v>0.1026592641785845</v>
+        <v>0.03991528974024944</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N5">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O5">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P5">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q5">
-        <v>396.03193012713</v>
+        <v>258.484881036525</v>
       </c>
       <c r="R5">
-        <v>1584.12772050852</v>
+        <v>1033.9395241461</v>
       </c>
       <c r="S5">
-        <v>0.01278996190414018</v>
+        <v>0.00994692321772953</v>
       </c>
       <c r="T5">
-        <v>0.007482680782933432</v>
+        <v>0.005834107604870987</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.66862</v>
+        <v>7.1463275</v>
       </c>
       <c r="H6">
-        <v>23.33724</v>
+        <v>14.292655</v>
       </c>
       <c r="I6">
-        <v>0.1418293637844402</v>
+        <v>0.05743188076521042</v>
       </c>
       <c r="J6">
-        <v>0.1026592641785845</v>
+        <v>0.03991528974024944</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N6">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O6">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P6">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q6">
-        <v>1106.82325114746</v>
+        <v>58.02332932573667</v>
       </c>
       <c r="R6">
-        <v>6640.93950688476</v>
+        <v>348.13997595442</v>
       </c>
       <c r="S6">
-        <v>0.03574516633607878</v>
+        <v>0.002232833113200855</v>
       </c>
       <c r="T6">
-        <v>0.03136870202160114</v>
+        <v>0.001964414778468497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.66862</v>
+        <v>7.1463275</v>
       </c>
       <c r="H7">
-        <v>23.33724</v>
+        <v>14.292655</v>
       </c>
       <c r="I7">
-        <v>0.1418293637844402</v>
+        <v>0.05743188076521042</v>
       </c>
       <c r="J7">
-        <v>0.1026592641785845</v>
+        <v>0.03991528974024944</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.54054833333333</v>
+        <v>27.84666233333333</v>
       </c>
       <c r="N7">
-        <v>106.621645</v>
+        <v>83.539987</v>
       </c>
       <c r="O7">
-        <v>0.09443141874256437</v>
+        <v>0.1333388313929376</v>
       </c>
       <c r="P7">
-        <v>0.1144889964762942</v>
+        <v>0.1687902380488052</v>
       </c>
       <c r="Q7">
-        <v>414.7091530932999</v>
+        <v>199.0013688159142</v>
       </c>
       <c r="R7">
-        <v>2488.2549185598</v>
+        <v>1194.008212895485</v>
       </c>
       <c r="S7">
-        <v>0.01339314804151997</v>
+        <v>0.007657899865931691</v>
       </c>
       <c r="T7">
-        <v>0.01175335613480091</v>
+        <v>0.006737311257043737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>45.36298</v>
       </c>
       <c r="I8">
-        <v>0.1837921591632454</v>
+        <v>0.1215207512070419</v>
       </c>
       <c r="J8">
-        <v>0.1995493103618015</v>
+        <v>0.1266858040147993</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N8">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O8">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P8">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q8">
-        <v>2477.846534840343</v>
+        <v>1442.845161185176</v>
       </c>
       <c r="R8">
-        <v>14867.07920904206</v>
+        <v>8657.07096711106</v>
       </c>
       <c r="S8">
-        <v>0.08002274658697456</v>
+        <v>0.05552305409829196</v>
       </c>
       <c r="T8">
-        <v>0.07022515069690044</v>
+        <v>0.04884839237269907</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>45.36298</v>
       </c>
       <c r="I9">
-        <v>0.1837921591632454</v>
+        <v>0.1215207512070419</v>
       </c>
       <c r="J9">
-        <v>0.1995493103618015</v>
+        <v>0.1266858040147993</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O9">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P9">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q9">
         <v>254.13983535876</v>
@@ -1013,10 +1013,10 @@
         <v>2287.25851822884</v>
       </c>
       <c r="S9">
-        <v>0.008207517034092619</v>
+        <v>0.009779718716015757</v>
       </c>
       <c r="T9">
-        <v>0.01080394285030106</v>
+        <v>0.01290608590142187</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>45.36298</v>
       </c>
       <c r="I10">
-        <v>0.1837921591632454</v>
+        <v>0.1215207512070419</v>
       </c>
       <c r="J10">
-        <v>0.1995493103618015</v>
+        <v>0.1266858040147993</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N10">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O10">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P10">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q10">
-        <v>474.0944566110422</v>
+        <v>370.1313371111489</v>
       </c>
       <c r="R10">
-        <v>4266.85010949938</v>
+        <v>3331.18203400034</v>
       </c>
       <c r="S10">
-        <v>0.01531101302128033</v>
+        <v>0.01424326241425288</v>
       </c>
       <c r="T10">
-        <v>0.0201546105813737</v>
+        <v>0.0187965291817443</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>45.36298</v>
       </c>
       <c r="I11">
-        <v>0.1837921591632454</v>
+        <v>0.1215207512070419</v>
       </c>
       <c r="J11">
-        <v>0.1995493103618015</v>
+        <v>0.1266858040147993</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N11">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O11">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P11">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q11">
-        <v>513.2051755254233</v>
+        <v>546.9310163745999</v>
       </c>
       <c r="R11">
-        <v>3079.23105315254</v>
+        <v>3281.5860982476</v>
       </c>
       <c r="S11">
-        <v>0.0165741046230052</v>
+        <v>0.02104680476265142</v>
       </c>
       <c r="T11">
-        <v>0.01454485186348487</v>
+        <v>0.01851667913327583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>45.36298</v>
       </c>
       <c r="I12">
-        <v>0.1837921591632454</v>
+        <v>0.1215207512070419</v>
       </c>
       <c r="J12">
-        <v>0.1995493103618015</v>
+        <v>0.1266858040147993</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N12">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O12">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P12">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q12">
-        <v>1434.297029278447</v>
+        <v>122.7722037525244</v>
       </c>
       <c r="R12">
-        <v>12908.67326350602</v>
+        <v>1104.94983377272</v>
       </c>
       <c r="S12">
-        <v>0.0463210235543482</v>
+        <v>0.004724476259890979</v>
       </c>
       <c r="T12">
-        <v>0.06097455407888217</v>
+        <v>0.006234790408595942</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>45.36298</v>
       </c>
       <c r="I13">
-        <v>0.1837921591632454</v>
+        <v>0.1215207512070419</v>
       </c>
       <c r="J13">
-        <v>0.1995493103618015</v>
+        <v>0.1266858040147993</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.54054833333333</v>
+        <v>27.84666233333333</v>
       </c>
       <c r="N13">
-        <v>106.621645</v>
+        <v>83.539987</v>
       </c>
       <c r="O13">
-        <v>0.09443141874256437</v>
+        <v>0.1333388313929376</v>
       </c>
       <c r="P13">
-        <v>0.1144889964762942</v>
+        <v>0.1687902380488052</v>
       </c>
       <c r="Q13">
-        <v>537.4083944113444</v>
+        <v>421.0691954979177</v>
       </c>
       <c r="R13">
-        <v>4836.675549702099</v>
+        <v>3789.62275948126</v>
       </c>
       <c r="S13">
-        <v>0.01735575434354446</v>
+        <v>0.01620343495593888</v>
       </c>
       <c r="T13">
-        <v>0.02284620029085922</v>
+        <v>0.02138332701706225</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.30100133333333</v>
+        <v>27.261966</v>
       </c>
       <c r="H14">
-        <v>45.903004</v>
+        <v>81.785898</v>
       </c>
       <c r="I14">
-        <v>0.1859801145612367</v>
+        <v>0.2190923912649148</v>
       </c>
       <c r="J14">
-        <v>0.2019248469067731</v>
+        <v>0.2284045767099596</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N14">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O14">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P14">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q14">
-        <v>2507.344081014131</v>
+        <v>2601.336754827051</v>
       </c>
       <c r="R14">
-        <v>15044.06448608479</v>
+        <v>15608.0205289623</v>
       </c>
       <c r="S14">
-        <v>0.08097537808743781</v>
+        <v>0.1001037153893194</v>
       </c>
       <c r="T14">
-        <v>0.07106114662970606</v>
+        <v>0.08806982336825192</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.30100133333333</v>
+        <v>27.261966</v>
       </c>
       <c r="H15">
-        <v>45.903004</v>
+        <v>81.785898</v>
       </c>
       <c r="I15">
-        <v>0.1859801145612367</v>
+        <v>0.2190923912649148</v>
       </c>
       <c r="J15">
-        <v>0.2019248469067731</v>
+        <v>0.2284045767099596</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O15">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P15">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q15">
-        <v>257.165245295448</v>
+        <v>458.194207091076</v>
       </c>
       <c r="R15">
-        <v>2314.487207659031</v>
+        <v>4123.747863819684</v>
       </c>
       <c r="S15">
-        <v>0.00830522349382738</v>
+        <v>0.01763206644221248</v>
       </c>
       <c r="T15">
-        <v>0.01093255848432225</v>
+        <v>0.02326866147490591</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.30100133333333</v>
+        <v>27.261966</v>
       </c>
       <c r="H16">
-        <v>45.903004</v>
+        <v>81.785898</v>
       </c>
       <c r="I16">
-        <v>0.1859801145612367</v>
+        <v>0.2190923912649148</v>
       </c>
       <c r="J16">
-        <v>0.2019248469067731</v>
+        <v>0.2284045767099596</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N16">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O16">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P16">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q16">
-        <v>479.7383182981915</v>
+        <v>667.317794897426</v>
       </c>
       <c r="R16">
-        <v>4317.644864683723</v>
+        <v>6005.860154076834</v>
       </c>
       <c r="S16">
-        <v>0.01549328311235027</v>
+        <v>0.02567948593763724</v>
       </c>
       <c r="T16">
-        <v>0.02039454132279756</v>
+        <v>0.0338886690956406</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.30100133333333</v>
+        <v>27.261966</v>
       </c>
       <c r="H17">
-        <v>45.903004</v>
+        <v>81.785898</v>
       </c>
       <c r="I17">
-        <v>0.1859801145612367</v>
+        <v>0.2190923912649148</v>
       </c>
       <c r="J17">
-        <v>0.2019248469067731</v>
+        <v>0.2284045767099596</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N17">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O17">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P17">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q17">
-        <v>519.3146311147153</v>
+        <v>986.0737614294601</v>
       </c>
       <c r="R17">
-        <v>3115.887786688292</v>
+        <v>5916.44256857676</v>
       </c>
       <c r="S17">
-        <v>0.01677141119931332</v>
+        <v>0.03794573962169423</v>
       </c>
       <c r="T17">
-        <v>0.01471800118221848</v>
+        <v>0.03338412138913329</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.30100133333333</v>
+        <v>27.261966</v>
       </c>
       <c r="H18">
-        <v>45.903004</v>
+        <v>81.785898</v>
       </c>
       <c r="I18">
-        <v>0.1859801145612367</v>
+        <v>0.2190923912649148</v>
       </c>
       <c r="J18">
-        <v>0.2019248469067731</v>
+        <v>0.2284045767099596</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N18">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O18">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P18">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q18">
-        <v>1451.371631055911</v>
+        <v>221.348662132408</v>
       </c>
       <c r="R18">
-        <v>13062.3446795032</v>
+        <v>1992.137959191672</v>
       </c>
       <c r="S18">
-        <v>0.04687245259238567</v>
+        <v>0.008517860455703418</v>
       </c>
       <c r="T18">
-        <v>0.06170042620174301</v>
+        <v>0.01124083850771722</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.30100133333333</v>
+        <v>27.261966</v>
       </c>
       <c r="H19">
-        <v>45.903004</v>
+        <v>81.785898</v>
       </c>
       <c r="I19">
-        <v>0.1859801145612367</v>
+        <v>0.2190923912649148</v>
       </c>
       <c r="J19">
-        <v>0.2019248469067731</v>
+        <v>0.2284045767099596</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>35.54054833333333</v>
+        <v>27.84666233333333</v>
       </c>
       <c r="N19">
-        <v>106.621645</v>
+        <v>83.539987</v>
       </c>
       <c r="O19">
-        <v>0.09443141874256437</v>
+        <v>0.1333388313929376</v>
       </c>
       <c r="P19">
-        <v>0.1144889964762942</v>
+        <v>0.1687902380488052</v>
       </c>
       <c r="Q19">
-        <v>543.8059774357309</v>
+        <v>759.154761744814</v>
       </c>
       <c r="R19">
-        <v>4894.253796921579</v>
+        <v>6832.392855703326</v>
       </c>
       <c r="S19">
-        <v>0.01756236607592224</v>
+        <v>0.029213523418348</v>
       </c>
       <c r="T19">
-        <v>0.02311817308598579</v>
+        <v>0.03855246287431068</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.8209415</v>
+        <v>8.073087000000001</v>
       </c>
       <c r="H20">
-        <v>15.641883</v>
+        <v>16.146174</v>
       </c>
       <c r="I20">
-        <v>0.09506172599161901</v>
+        <v>0.0648798379295058</v>
       </c>
       <c r="J20">
-        <v>0.06880780242854385</v>
+        <v>0.04509163716653641</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N20">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O20">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P20">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q20">
-        <v>1281.60183446705</v>
+        <v>770.3339494303696</v>
       </c>
       <c r="R20">
-        <v>5126.407337868201</v>
+        <v>3081.335797721478</v>
       </c>
       <c r="S20">
-        <v>0.04138968954813282</v>
+        <v>0.02964371694107514</v>
       </c>
       <c r="T20">
-        <v>0.02421475817634303</v>
+        <v>0.01738674670116187</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.8209415</v>
+        <v>8.073087000000001</v>
       </c>
       <c r="H21">
-        <v>15.641883</v>
+        <v>16.146174</v>
       </c>
       <c r="I21">
-        <v>0.09506172599161901</v>
+        <v>0.0648798379295058</v>
       </c>
       <c r="J21">
-        <v>0.06880780242854385</v>
+        <v>0.04509163716653641</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O21">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P21">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q21">
-        <v>131.447236391469</v>
+        <v>135.685067494482</v>
       </c>
       <c r="R21">
-        <v>788.6834183488139</v>
+        <v>814.110404966892</v>
       </c>
       <c r="S21">
-        <v>0.00424512524864274</v>
+        <v>0.005221384487742439</v>
       </c>
       <c r="T21">
-        <v>0.0037253727599707</v>
+        <v>0.004593699722181046</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.8209415</v>
+        <v>8.073087000000001</v>
       </c>
       <c r="H22">
-        <v>15.641883</v>
+        <v>16.146174</v>
       </c>
       <c r="I22">
-        <v>0.09506172599161901</v>
+        <v>0.0648798379295058</v>
       </c>
       <c r="J22">
-        <v>0.06880780242854385</v>
+        <v>0.04509163716653641</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N22">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O22">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P22">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q22">
-        <v>245.2130576934705</v>
+        <v>197.612843287057</v>
       </c>
       <c r="R22">
-        <v>1471.278346160823</v>
+        <v>1185.677059722342</v>
       </c>
       <c r="S22">
-        <v>0.00791922425368693</v>
+        <v>0.007604467120596588</v>
       </c>
       <c r="T22">
-        <v>0.006949632952341523</v>
+        <v>0.006690301888555847</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.8209415</v>
+        <v>8.073087000000001</v>
       </c>
       <c r="H23">
-        <v>15.641883</v>
+        <v>16.146174</v>
       </c>
       <c r="I23">
-        <v>0.09506172599161901</v>
+        <v>0.0648798379295058</v>
       </c>
       <c r="J23">
-        <v>0.06880780242854385</v>
+        <v>0.04509163716653641</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N23">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O23">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P23">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q23">
-        <v>265.4420623566772</v>
+        <v>292.00605944697</v>
       </c>
       <c r="R23">
-        <v>1061.768249426709</v>
+        <v>1168.02423778788</v>
       </c>
       <c r="S23">
-        <v>0.008572525614812117</v>
+        <v>0.01123687327778505</v>
       </c>
       <c r="T23">
-        <v>0.005015298181489891</v>
+        <v>0.006590694067895028</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.8209415</v>
+        <v>8.073087000000001</v>
       </c>
       <c r="H24">
-        <v>15.641883</v>
+        <v>16.146174</v>
       </c>
       <c r="I24">
-        <v>0.09506172599161901</v>
+        <v>0.0648798379295058</v>
       </c>
       <c r="J24">
-        <v>0.06880780242854385</v>
+        <v>0.04509163716653641</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N24">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O24">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P24">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q24">
-        <v>741.8529267440446</v>
+        <v>65.54798750495601</v>
       </c>
       <c r="R24">
-        <v>4451.117560464268</v>
+        <v>393.287925029736</v>
       </c>
       <c r="S24">
-        <v>0.02395834767283891</v>
+        <v>0.002522394331823074</v>
       </c>
       <c r="T24">
-        <v>0.02102500410861561</v>
+        <v>0.002219166615392578</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.8209415</v>
+        <v>8.073087000000001</v>
       </c>
       <c r="H25">
-        <v>15.641883</v>
+        <v>16.146174</v>
       </c>
       <c r="I25">
-        <v>0.09506172599161901</v>
+        <v>0.0648798379295058</v>
       </c>
       <c r="J25">
-        <v>0.06880780242854385</v>
+        <v>0.04509163716653641</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>35.54054833333333</v>
+        <v>27.84666233333333</v>
       </c>
       <c r="N25">
-        <v>106.621645</v>
+        <v>83.539987</v>
       </c>
       <c r="O25">
-        <v>0.09443141874256437</v>
+        <v>0.1333388313929376</v>
       </c>
       <c r="P25">
-        <v>0.1144889964762942</v>
+        <v>0.1687902380488052</v>
       </c>
       <c r="Q25">
-        <v>277.9605493929225</v>
+        <v>224.808527676623</v>
       </c>
       <c r="R25">
-        <v>1667.763296357535</v>
+        <v>1348.851166059738</v>
       </c>
       <c r="S25">
-        <v>0.008976813653505489</v>
+        <v>0.008651001770483495</v>
       </c>
       <c r="T25">
-        <v>0.007877736249783102</v>
+        <v>0.007611028171350035</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.323066666666668</v>
+        <v>57.63010766666667</v>
       </c>
       <c r="H26">
-        <v>24.9692</v>
+        <v>172.890323</v>
       </c>
       <c r="I26">
-        <v>0.101164940675831</v>
+        <v>0.4631477457474821</v>
       </c>
       <c r="J26">
-        <v>0.1098381684864154</v>
+        <v>0.4828331290323816</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N26">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O26">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P26">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q26">
-        <v>1363.884067972067</v>
+        <v>5499.064787108172</v>
       </c>
       <c r="R26">
-        <v>8183.3044078324</v>
+        <v>32994.38872264903</v>
       </c>
       <c r="S26">
-        <v>0.04404701728324473</v>
+        <v>0.211613054455421</v>
       </c>
       <c r="T26">
-        <v>0.03865411471603158</v>
+        <v>0.1861741520364553</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.323066666666668</v>
+        <v>57.63010766666667</v>
       </c>
       <c r="H27">
-        <v>24.9692</v>
+        <v>172.890323</v>
       </c>
       <c r="I27">
-        <v>0.101164940675831</v>
+        <v>0.4631477457474821</v>
       </c>
       <c r="J27">
-        <v>0.1098381684864154</v>
+        <v>0.4828331290323816</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O27">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P27">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q27">
-        <v>139.8864972504</v>
+        <v>968.594175742926</v>
       </c>
       <c r="R27">
-        <v>1258.9784752536</v>
+        <v>8717.347581686334</v>
       </c>
       <c r="S27">
-        <v>0.0045176735374895</v>
+        <v>0.03727309642490661</v>
       </c>
       <c r="T27">
-        <v>0.005946827342862775</v>
+        <v>0.04918850922409801</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.323066666666668</v>
+        <v>57.63010766666667</v>
       </c>
       <c r="H28">
-        <v>24.9692</v>
+        <v>172.890323</v>
       </c>
       <c r="I28">
-        <v>0.101164940675831</v>
+        <v>0.4631477457474821</v>
       </c>
       <c r="J28">
-        <v>0.1098381684864154</v>
+        <v>0.4828331290323816</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N28">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O28">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P28">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q28">
-        <v>260.9563857139111</v>
+        <v>1410.668488392262</v>
       </c>
       <c r="R28">
-        <v>2348.6074714252</v>
+        <v>12696.01639553036</v>
       </c>
       <c r="S28">
-        <v>0.008427659433550281</v>
+        <v>0.05428484282500709</v>
       </c>
       <c r="T28">
-        <v>0.01109372670244407</v>
+        <v>0.07163854758904063</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.323066666666668</v>
+        <v>57.63010766666667</v>
       </c>
       <c r="H29">
-        <v>24.9692</v>
+        <v>172.890323</v>
       </c>
       <c r="I29">
-        <v>0.101164940675831</v>
+        <v>0.4631477457474821</v>
       </c>
       <c r="J29">
-        <v>0.1098381684864154</v>
+        <v>0.4828331290323816</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N29">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O29">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P29">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q29">
-        <v>282.4841460752667</v>
+        <v>2084.49885963671</v>
       </c>
       <c r="R29">
-        <v>1694.9048764516</v>
+        <v>12506.99315782026</v>
       </c>
       <c r="S29">
-        <v>0.009122904473046999</v>
+        <v>0.08021494340831979</v>
       </c>
       <c r="T29">
-        <v>0.008005940419913472</v>
+        <v>0.07057196498641445</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.323066666666668</v>
+        <v>57.63010766666667</v>
       </c>
       <c r="H30">
-        <v>24.9692</v>
+        <v>172.890323</v>
       </c>
       <c r="I30">
-        <v>0.101164940675831</v>
+        <v>0.4631477457474821</v>
       </c>
       <c r="J30">
-        <v>0.1098381684864154</v>
+        <v>0.4828331290323816</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N30">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O30">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P30">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q30">
-        <v>789.4818502545335</v>
+        <v>467.9173626202636</v>
       </c>
       <c r="R30">
-        <v>7105.336652290801</v>
+        <v>4211.256263582372</v>
       </c>
       <c r="S30">
-        <v>0.02549653707347337</v>
+        <v>0.01800622945358491</v>
       </c>
       <c r="T30">
-        <v>0.0335622976203597</v>
+        <v>0.02376243640914805</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.323066666666668</v>
+        <v>57.63010766666667</v>
       </c>
       <c r="H31">
-        <v>24.9692</v>
+        <v>172.890323</v>
       </c>
       <c r="I31">
-        <v>0.101164940675831</v>
+        <v>0.4631477457474821</v>
       </c>
       <c r="J31">
-        <v>0.1098381684864154</v>
+        <v>0.4828331290323816</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>35.54054833333333</v>
+        <v>27.84666233333333</v>
       </c>
       <c r="N31">
-        <v>106.621645</v>
+        <v>83.539987</v>
       </c>
       <c r="O31">
-        <v>0.09443141874256437</v>
+        <v>0.1333388313929376</v>
       </c>
       <c r="P31">
-        <v>0.1144889964762942</v>
+        <v>0.1687902380488052</v>
       </c>
       <c r="Q31">
-        <v>295.8063531482222</v>
+        <v>1604.806148427311</v>
       </c>
       <c r="R31">
-        <v>2662.257178334</v>
+        <v>14443.2553358458</v>
       </c>
       <c r="S31">
-        <v>0.009553148875026077</v>
+        <v>0.06175557918024267</v>
       </c>
       <c r="T31">
-        <v>0.01257526168480382</v>
+        <v>0.08149751878722518</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>24.037621</v>
+        <v>9.198886666666667</v>
       </c>
       <c r="H32">
-        <v>72.112863</v>
+        <v>27.59666</v>
       </c>
       <c r="I32">
-        <v>0.2921716958236277</v>
+        <v>0.07392739308584499</v>
       </c>
       <c r="J32">
-        <v>0.3172206076378816</v>
+        <v>0.07706956333607383</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N32">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O32">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P32">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q32">
-        <v>3938.996241031044</v>
+        <v>877.7577519350033</v>
       </c>
       <c r="R32">
-        <v>23633.97744618626</v>
+        <v>5266.546511610019</v>
       </c>
       <c r="S32">
-        <v>0.127210984849545</v>
+        <v>0.03377756148542644</v>
       </c>
       <c r="T32">
-        <v>0.1116358905733251</v>
+        <v>0.02971701761780133</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>24.037621</v>
+        <v>9.198886666666667</v>
       </c>
       <c r="H33">
-        <v>72.112863</v>
+        <v>27.59666</v>
       </c>
       <c r="I33">
-        <v>0.2921716958236277</v>
+        <v>0.07392739308584499</v>
       </c>
       <c r="J33">
-        <v>0.3172206076378816</v>
+        <v>0.07706956333607383</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O33">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P33">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q33">
-        <v>404.002363382406</v>
+        <v>154.60647931092</v>
       </c>
       <c r="R33">
-        <v>3636.021270441654</v>
+        <v>1391.45831379828</v>
       </c>
       <c r="S33">
-        <v>0.01304736927445435</v>
+        <v>0.005949511524629188</v>
       </c>
       <c r="T33">
-        <v>0.01717486925734574</v>
+        <v>0.007851443281555419</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>24.037621</v>
+        <v>9.198886666666667</v>
       </c>
       <c r="H34">
-        <v>72.112863</v>
+        <v>27.59666</v>
       </c>
       <c r="I34">
-        <v>0.2921716958236277</v>
+        <v>0.07392739308584499</v>
       </c>
       <c r="J34">
-        <v>0.3172206076378816</v>
+        <v>0.07706956333607383</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N34">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O34">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P34">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q34">
-        <v>753.6609940231336</v>
+        <v>225.1701423848644</v>
       </c>
       <c r="R34">
-        <v>6782.948946208204</v>
+        <v>2026.53128146378</v>
       </c>
       <c r="S34">
-        <v>0.02433969250685921</v>
+        <v>0.008664917299015976</v>
       </c>
       <c r="T34">
-        <v>0.03203948840382515</v>
+        <v>0.0114349062828032</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>24.037621</v>
+        <v>9.198886666666667</v>
       </c>
       <c r="H35">
-        <v>72.112863</v>
+        <v>27.59666</v>
       </c>
       <c r="I35">
-        <v>0.2921716958236277</v>
+        <v>0.07392739308584499</v>
       </c>
       <c r="J35">
-        <v>0.3172206076378816</v>
+        <v>0.07706956333607383</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N35">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O35">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P35">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q35">
-        <v>815.8347294105416</v>
+        <v>332.7265823882</v>
       </c>
       <c r="R35">
-        <v>4895.008376463249</v>
+        <v>1996.3594943292</v>
       </c>
       <c r="S35">
-        <v>0.02634761067342668</v>
+        <v>0.01280386595239713</v>
       </c>
       <c r="T35">
-        <v>0.0231217373679326</v>
+        <v>0.01126465894370493</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>24.037621</v>
+        <v>9.198886666666667</v>
       </c>
       <c r="H36">
-        <v>72.112863</v>
+        <v>27.59666</v>
       </c>
       <c r="I36">
-        <v>0.2921716958236277</v>
+        <v>0.07392739308584499</v>
       </c>
       <c r="J36">
-        <v>0.3172206076378816</v>
+        <v>0.07706956333607383</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N36">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O36">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P36">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q36">
-        <v>2280.080920029143</v>
+        <v>74.68871675558222</v>
       </c>
       <c r="R36">
-        <v>20520.72828026229</v>
+        <v>672.1984508002399</v>
       </c>
       <c r="S36">
-        <v>0.07363585076629631</v>
+        <v>0.002874144622383339</v>
       </c>
       <c r="T36">
-        <v>0.09693035300539164</v>
+        <v>0.00379294726839558</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>24.037621</v>
+        <v>9.198886666666667</v>
       </c>
       <c r="H37">
-        <v>72.112863</v>
+        <v>27.59666</v>
       </c>
       <c r="I37">
-        <v>0.2921716958236277</v>
+        <v>0.07392739308584499</v>
       </c>
       <c r="J37">
-        <v>0.3172206076378816</v>
+        <v>0.07706956333607383</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>35.54054833333333</v>
+        <v>27.84666233333333</v>
       </c>
       <c r="N37">
-        <v>106.621645</v>
+        <v>83.539987</v>
       </c>
       <c r="O37">
-        <v>0.09443141874256437</v>
+        <v>0.1333388313929376</v>
       </c>
       <c r="P37">
-        <v>0.1144889964762942</v>
+        <v>0.1687902380488052</v>
       </c>
       <c r="Q37">
-        <v>854.3102309688483</v>
+        <v>256.1582908492689</v>
       </c>
       <c r="R37">
-        <v>7688.792078719634</v>
+        <v>2305.42461764342</v>
       </c>
       <c r="S37">
-        <v>0.02759018775304614</v>
+        <v>0.00985739220199291</v>
       </c>
       <c r="T37">
-        <v>0.03631826903006131</v>
+        <v>0.01300858994181337</v>
       </c>
     </row>
   </sheetData>
